--- a/practicas/Dtos_temp_CO2.xlsx
+++ b/practicas/Dtos_temp_CO2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af79b8e6ac8f3b90/Escritorio/Master CM/Python/Práctica 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B42D8BE-1743-4A94-8C92-B8E6EBA30053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{4B42D8BE-1743-4A94-8C92-B8E6EBA30053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B6C7CCF-1DFC-4557-8EAC-495A539B150B}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>China</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Temp_Max_Anual_Madrid</t>
+  </si>
+  <si>
+    <t>Años</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,6 +429,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>

--- a/practicas/Dtos_temp_CO2.xlsx
+++ b/practicas/Dtos_temp_CO2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af79b8e6ac8f3b90/Escritorio/Master CM/Python/Práctica 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{4B42D8BE-1743-4A94-8C92-B8E6EBA30053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B6C7CCF-1DFC-4557-8EAC-495A539B150B}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4B42D8BE-1743-4A94-8C92-B8E6EBA30053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37C177F3-ABED-4C61-804F-328066E38C33}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>China</t>
   </si>
@@ -66,6 +66,45 @@
   </si>
   <si>
     <t>Años</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>FEB</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>ANN</t>
   </si>
 </sst>
 </file>
@@ -413,22 +452,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
+    <col min="8" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -450,11 +490,50 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1980</v>
       </c>
@@ -477,10 +556,49 @@
         <v>4808.2957999999999</v>
       </c>
       <c r="H2" s="1">
+        <v>16.72</v>
+      </c>
+      <c r="I2" s="1">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="J2" s="1">
+        <v>24.55</v>
+      </c>
+      <c r="K2" s="1">
+        <v>22.73</v>
+      </c>
+      <c r="L2" s="1">
+        <v>29.16</v>
+      </c>
+      <c r="M2" s="1">
+        <v>38.43</v>
+      </c>
+      <c r="N2" s="1">
         <v>40.119999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O2" s="1">
+        <v>35.58</v>
+      </c>
+      <c r="P2" s="1">
+        <v>35.15</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>29.79</v>
+      </c>
+      <c r="R2" s="1">
+        <v>23.56</v>
+      </c>
+      <c r="S2" s="1">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="T2" s="1">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="U2" s="1">
+        <v>40.119999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1981</v>
       </c>
@@ -503,10 +621,49 @@
         <v>4686.1715000000004</v>
       </c>
       <c r="H3" s="1">
+        <v>16.66</v>
+      </c>
+      <c r="I3" s="1">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="J3" s="1">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>25.76</v>
+      </c>
+      <c r="L3" s="1">
+        <v>30.8</v>
+      </c>
+      <c r="M3" s="1">
+        <v>35.29</v>
+      </c>
+      <c r="N3" s="1">
         <v>38.51</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O3" s="1">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="P3" s="1">
+        <v>31.75</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>24.51</v>
+      </c>
+      <c r="R3" s="1">
+        <v>20.83</v>
+      </c>
+      <c r="S3" s="1">
+        <v>14.59</v>
+      </c>
+      <c r="T3" s="1">
+        <v>38.51</v>
+      </c>
+      <c r="U3" s="1">
+        <v>38.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1982</v>
       </c>
@@ -529,10 +686,49 @@
         <v>4447.0798999999997</v>
       </c>
       <c r="H4" s="1">
+        <v>17.39</v>
+      </c>
+      <c r="I4" s="1">
+        <v>17.46</v>
+      </c>
+      <c r="J4" s="1">
+        <v>22.94</v>
+      </c>
+      <c r="K4" s="1">
+        <v>25.33</v>
+      </c>
+      <c r="L4" s="1">
+        <v>26.39</v>
+      </c>
+      <c r="M4" s="1">
+        <v>36.47</v>
+      </c>
+      <c r="N4" s="1">
         <v>38.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O4" s="1">
+        <v>36.06</v>
+      </c>
+      <c r="P4" s="1">
+        <v>35.65</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>29.93</v>
+      </c>
+      <c r="R4" s="1">
+        <v>19.57</v>
+      </c>
+      <c r="S4" s="1">
+        <v>18.87</v>
+      </c>
+      <c r="T4" s="1">
+        <v>38.04</v>
+      </c>
+      <c r="U4" s="1">
+        <v>38.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1983</v>
       </c>
@@ -555,10 +751,49 @@
         <v>4429.1867000000002</v>
       </c>
       <c r="H5" s="1">
+        <v>14.15</v>
+      </c>
+      <c r="I5" s="1">
+        <v>17.13</v>
+      </c>
+      <c r="J5" s="1">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="K5" s="1">
+        <v>25.49</v>
+      </c>
+      <c r="L5" s="1">
+        <v>22.72</v>
+      </c>
+      <c r="M5" s="1">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="N5" s="1">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O5" s="1">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="P5" s="1">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>25.73</v>
+      </c>
+      <c r="R5" s="1">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="S5" s="1">
+        <v>15.33</v>
+      </c>
+      <c r="T5" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="U5" s="1">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1984</v>
       </c>
@@ -581,10 +816,49 @@
         <v>4661.9209000000001</v>
       </c>
       <c r="H6" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="J6" s="1">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="K6" s="1">
+        <v>27.33</v>
+      </c>
+      <c r="L6" s="1">
+        <v>27.84</v>
+      </c>
+      <c r="M6" s="1">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="N6" s="1">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="O6" s="1">
         <v>40.42</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P6" s="1">
+        <v>36.07</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>30.64</v>
+      </c>
+      <c r="R6" s="1">
+        <v>25.81</v>
+      </c>
+      <c r="S6" s="1">
+        <v>20.37</v>
+      </c>
+      <c r="T6" s="1">
+        <v>40.42</v>
+      </c>
+      <c r="U6" s="1">
+        <v>40.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1985</v>
       </c>
@@ -607,10 +881,49 @@
         <v>4652.3828999999996</v>
       </c>
       <c r="H7" s="1">
+        <v>14.51</v>
+      </c>
+      <c r="I7" s="1">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>21.61</v>
+      </c>
+      <c r="K7" s="1">
+        <v>22.25</v>
+      </c>
+      <c r="L7" s="1">
+        <v>32.31</v>
+      </c>
+      <c r="M7" s="1">
+        <v>37.42</v>
+      </c>
+      <c r="N7" s="1">
         <v>39.71</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O7" s="1">
+        <v>37.89</v>
+      </c>
+      <c r="P7" s="1">
+        <v>34.94</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>27.07</v>
+      </c>
+      <c r="R7" s="1">
+        <v>20.22</v>
+      </c>
+      <c r="S7" s="1">
+        <v>14.54</v>
+      </c>
+      <c r="T7" s="1">
+        <v>39.71</v>
+      </c>
+      <c r="U7" s="1">
+        <v>39.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1986</v>
       </c>
@@ -633,10 +946,49 @@
         <v>4663.1655000000001</v>
       </c>
       <c r="H8" s="1">
+        <v>16.23</v>
+      </c>
+      <c r="I8" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>22.58</v>
+      </c>
+      <c r="K8" s="1">
+        <v>28.9</v>
+      </c>
+      <c r="L8" s="1">
+        <v>31.47</v>
+      </c>
+      <c r="M8" s="1">
+        <v>38.71</v>
+      </c>
+      <c r="N8" s="1">
+        <v>36.369999999999997</v>
+      </c>
+      <c r="O8" s="1">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P8" s="1">
+        <v>37.15</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>25.89</v>
+      </c>
+      <c r="R8" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="S8" s="1">
+        <v>18.14</v>
+      </c>
+      <c r="T8" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="U8" s="1">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1987</v>
       </c>
@@ -659,10 +1011,49 @@
         <v>4825.4447</v>
       </c>
       <c r="H9" s="1">
+        <v>13.58</v>
+      </c>
+      <c r="I9" s="1">
+        <v>15.98</v>
+      </c>
+      <c r="J9" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>25.53</v>
+      </c>
+      <c r="L9" s="1">
+        <v>26.01</v>
+      </c>
+      <c r="M9" s="1">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="N9" s="1">
+        <v>38.54</v>
+      </c>
+      <c r="O9" s="1">
         <v>40.07</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P9" s="1">
+        <v>39.42</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>28.95</v>
+      </c>
+      <c r="R9" s="1">
+        <v>21.38</v>
+      </c>
+      <c r="S9" s="1">
+        <v>14.58</v>
+      </c>
+      <c r="T9" s="1">
+        <v>40.07</v>
+      </c>
+      <c r="U9" s="1">
+        <v>40.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1988</v>
       </c>
@@ -685,10 +1076,49 @@
         <v>5050.2677999999996</v>
       </c>
       <c r="H10" s="1">
+        <v>14.24</v>
+      </c>
+      <c r="I10" s="1">
+        <v>18.48</v>
+      </c>
+      <c r="J10" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>22.34</v>
+      </c>
+      <c r="L10" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="M10" s="1">
+        <v>36.47</v>
+      </c>
+      <c r="N10" s="1">
         <v>40.049999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O10" s="1">
+        <v>39.61</v>
+      </c>
+      <c r="P10" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>28.52</v>
+      </c>
+      <c r="R10" s="1">
+        <v>23.59</v>
+      </c>
+      <c r="S10" s="1">
+        <v>16.02</v>
+      </c>
+      <c r="T10" s="1">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="U10" s="1">
+        <v>40.049999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1989</v>
       </c>
@@ -711,10 +1141,49 @@
         <v>5131.9265999999998</v>
       </c>
       <c r="H11" s="1">
+        <v>11.95</v>
+      </c>
+      <c r="I11" s="1">
+        <v>20.51</v>
+      </c>
+      <c r="J11" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>21.34</v>
+      </c>
+      <c r="L11" s="1">
+        <v>29.53</v>
+      </c>
+      <c r="M11" s="1">
+        <v>36.33</v>
+      </c>
+      <c r="N11" s="1">
         <v>39.89</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O11" s="1">
+        <v>38.01</v>
+      </c>
+      <c r="P11" s="1">
+        <v>34.33</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>26.94</v>
+      </c>
+      <c r="R11" s="1">
+        <v>21.33</v>
+      </c>
+      <c r="S11" s="1">
+        <v>13.14</v>
+      </c>
+      <c r="T11" s="1">
+        <v>39.89</v>
+      </c>
+      <c r="U11" s="1">
+        <v>39.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1990</v>
       </c>
@@ -737,10 +1206,49 @@
         <v>5113.4547000000002</v>
       </c>
       <c r="H12" s="1">
+        <v>13.43</v>
+      </c>
+      <c r="I12" s="1">
+        <v>17.73</v>
+      </c>
+      <c r="J12" s="1">
+        <v>21.66</v>
+      </c>
+      <c r="K12" s="1">
+        <v>25.28</v>
+      </c>
+      <c r="L12" s="1">
+        <v>30.02</v>
+      </c>
+      <c r="M12" s="1">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="N12" s="1">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O12" s="1">
+        <v>39.99</v>
+      </c>
+      <c r="P12" s="1">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="R12" s="1">
+        <v>20.92</v>
+      </c>
+      <c r="S12" s="1">
+        <v>14.19</v>
+      </c>
+      <c r="T12" s="1">
+        <v>40.6</v>
+      </c>
+      <c r="U12" s="1">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1991</v>
       </c>
@@ -763,10 +1271,49 @@
         <v>5057.9309000000003</v>
       </c>
       <c r="H13" s="1">
+        <v>12.22</v>
+      </c>
+      <c r="I13" s="1">
+        <v>17.55</v>
+      </c>
+      <c r="J13" s="1">
+        <v>25.33</v>
+      </c>
+      <c r="K13" s="1">
+        <v>27.79</v>
+      </c>
+      <c r="L13" s="1">
+        <v>31.82</v>
+      </c>
+      <c r="M13" s="1">
+        <v>31.56</v>
+      </c>
+      <c r="N13" s="1">
+        <v>38.36</v>
+      </c>
+      <c r="O13" s="1">
         <v>39.549999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P13" s="1">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>26.58</v>
+      </c>
+      <c r="R13" s="1">
+        <v>21.33</v>
+      </c>
+      <c r="S13" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="T13" s="1">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="U13" s="1">
+        <v>39.549999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1992</v>
       </c>
@@ -789,10 +1336,49 @@
         <v>5167.4808000000003</v>
       </c>
       <c r="H14" s="1">
+        <v>14.43</v>
+      </c>
+      <c r="I14" s="1">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="J14" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="K14" s="1">
+        <v>25.38</v>
+      </c>
+      <c r="L14" s="1">
+        <v>27.12</v>
+      </c>
+      <c r="M14" s="1">
+        <v>33.619999999999997</v>
+      </c>
+      <c r="N14" s="1">
+        <v>39.69</v>
+      </c>
+      <c r="O14" s="1">
         <v>41.26</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P14" s="1">
+        <v>33.43</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>23.77</v>
+      </c>
+      <c r="R14" s="1">
+        <v>18.48</v>
+      </c>
+      <c r="S14" s="1">
+        <v>14.19</v>
+      </c>
+      <c r="T14" s="1">
+        <v>41.26</v>
+      </c>
+      <c r="U14" s="1">
+        <v>41.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1993</v>
       </c>
@@ -815,10 +1401,49 @@
         <v>5267.3431</v>
       </c>
       <c r="H15" s="1">
+        <v>14.92</v>
+      </c>
+      <c r="I15" s="1">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="J15" s="1">
+        <v>24.33</v>
+      </c>
+      <c r="K15" s="1">
+        <v>28.43</v>
+      </c>
+      <c r="L15" s="1">
+        <v>32.83</v>
+      </c>
+      <c r="M15" s="1">
         <v>40.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N15" s="1">
+        <v>39.31</v>
+      </c>
+      <c r="O15" s="1">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="P15" s="1">
+        <v>32.58</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>25.21</v>
+      </c>
+      <c r="R15" s="1">
+        <v>20.3</v>
+      </c>
+      <c r="S15" s="1">
+        <v>18.37</v>
+      </c>
+      <c r="T15" s="1">
+        <v>40.1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1994</v>
       </c>
@@ -841,10 +1466,49 @@
         <v>5358.8239999999996</v>
       </c>
       <c r="H16" s="1">
+        <v>16.84</v>
+      </c>
+      <c r="I16" s="1">
+        <v>19.21</v>
+      </c>
+      <c r="J16" s="1">
+        <v>22.15</v>
+      </c>
+      <c r="K16" s="1">
+        <v>27.49</v>
+      </c>
+      <c r="L16" s="1">
+        <v>32.86</v>
+      </c>
+      <c r="M16" s="1">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="N16" s="1">
         <v>42.09</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O16" s="1">
+        <v>36.65</v>
+      </c>
+      <c r="P16" s="1">
+        <v>33.36</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>29.41</v>
+      </c>
+      <c r="R16" s="1">
+        <v>22.76</v>
+      </c>
+      <c r="S16" s="1">
+        <v>16.13</v>
+      </c>
+      <c r="T16" s="1">
+        <v>42.09</v>
+      </c>
+      <c r="U16" s="1">
+        <v>42.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1995</v>
       </c>
@@ -867,10 +1531,49 @@
         <v>5421.5024999999996</v>
       </c>
       <c r="H17" s="1">
+        <v>15.69</v>
+      </c>
+      <c r="I17" s="1">
+        <v>14.36</v>
+      </c>
+      <c r="J17" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>22.96</v>
+      </c>
+      <c r="L17" s="1">
+        <v>32.28</v>
+      </c>
+      <c r="M17" s="1">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="N17" s="1">
         <v>39.090000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O17" s="1">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="P17" s="1">
+        <v>30.91</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>26.75</v>
+      </c>
+      <c r="R17" s="1">
+        <v>23.81</v>
+      </c>
+      <c r="S17" s="1">
+        <v>16.73</v>
+      </c>
+      <c r="T17" s="1">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="U17" s="1">
+        <v>39.090000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1996</v>
       </c>
@@ -893,10 +1596,49 @@
         <v>5610.5816000000004</v>
       </c>
       <c r="H18" s="1">
+        <v>15.59</v>
+      </c>
+      <c r="I18" s="1">
+        <v>19.71</v>
+      </c>
+      <c r="J18" s="1">
+        <v>23.48</v>
+      </c>
+      <c r="K18" s="1">
+        <v>27.26</v>
+      </c>
+      <c r="L18" s="1">
+        <v>28.78</v>
+      </c>
+      <c r="M18" s="1">
+        <v>31.91</v>
+      </c>
+      <c r="N18" s="1">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="O18" s="1">
         <v>37.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P18" s="1">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>28.88</v>
+      </c>
+      <c r="R18" s="1">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="S18" s="1">
+        <v>16.04</v>
+      </c>
+      <c r="T18" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="U18" s="1">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1997</v>
       </c>
@@ -919,10 +1661,49 @@
         <v>5686.4650000000001</v>
       </c>
       <c r="H19" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="I19" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="J19" s="1">
+        <v>22.37</v>
+      </c>
+      <c r="K19" s="1">
+        <v>26.74</v>
+      </c>
+      <c r="L19" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="M19" s="1">
+        <v>35.03</v>
+      </c>
+      <c r="N19" s="1">
         <v>38.869999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O19" s="1">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="P19" s="1">
+        <v>34.99</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>24.69</v>
+      </c>
+      <c r="R19" s="1">
+        <v>21.19</v>
+      </c>
+      <c r="S19" s="1">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="T19" s="1">
+        <v>38.869999999999997</v>
+      </c>
+      <c r="U19" s="1">
+        <v>38.869999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1998</v>
       </c>
@@ -945,10 +1726,49 @@
         <v>5731.0496000000003</v>
       </c>
       <c r="H20" s="1">
+        <v>16.05</v>
+      </c>
+      <c r="I20" s="1">
+        <v>19.38</v>
+      </c>
+      <c r="J20" s="1">
+        <v>23.55</v>
+      </c>
+      <c r="K20" s="1">
+        <v>28.05</v>
+      </c>
+      <c r="L20" s="1">
+        <v>32.92</v>
+      </c>
+      <c r="M20" s="1">
+        <v>37.1</v>
+      </c>
+      <c r="N20" s="1">
         <v>39.869999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O20" s="1">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="P20" s="1">
+        <v>32.99</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>25.58</v>
+      </c>
+      <c r="R20" s="1">
+        <v>21.35</v>
+      </c>
+      <c r="S20" s="1">
+        <v>14.89</v>
+      </c>
+      <c r="T20" s="1">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="U20" s="1">
+        <v>39.869999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1999</v>
       </c>
@@ -971,10 +1791,49 @@
         <v>5804.6688999999997</v>
       </c>
       <c r="H21" s="1">
+        <v>17.89</v>
+      </c>
+      <c r="I21" s="1">
+        <v>19.36</v>
+      </c>
+      <c r="J21" s="1">
+        <v>23.76</v>
+      </c>
+      <c r="K21" s="1">
+        <v>22.17</v>
+      </c>
+      <c r="L21" s="1">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="M21" s="1">
+        <v>38.58</v>
+      </c>
+      <c r="N21" s="1">
         <v>39.200000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O21" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="P21" s="1">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>28.08</v>
+      </c>
+      <c r="R21" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="S21" s="1">
+        <v>15.34</v>
+      </c>
+      <c r="T21" s="1">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="U21" s="1">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2000</v>
       </c>
@@ -997,10 +1856,49 @@
         <v>6010.5083999999997</v>
       </c>
       <c r="H22" s="1">
+        <v>15.02</v>
+      </c>
+      <c r="I22" s="1">
+        <v>17.91</v>
+      </c>
+      <c r="J22" s="1">
+        <v>23</v>
+      </c>
+      <c r="K22" s="1">
+        <v>23.06</v>
+      </c>
+      <c r="L22" s="1">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="M22" s="1">
         <v>39.51</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N22" s="1">
+        <v>39.08</v>
+      </c>
+      <c r="O22" s="1">
+        <v>39.19</v>
+      </c>
+      <c r="P22" s="1">
+        <v>34.86</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>27.81</v>
+      </c>
+      <c r="R22" s="1">
+        <v>20.69</v>
+      </c>
+      <c r="S22" s="1">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="T22" s="1">
+        <v>39.51</v>
+      </c>
+      <c r="U22" s="1">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2001</v>
       </c>
@@ -1023,10 +1921,49 @@
         <v>5904.8815999999997</v>
       </c>
       <c r="H23" s="1">
+        <v>16.32</v>
+      </c>
+      <c r="I23" s="1">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="J23" s="1">
+        <v>25.99</v>
+      </c>
+      <c r="K23" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="L23" s="1">
+        <v>33.71</v>
+      </c>
+      <c r="M23" s="1">
         <v>39.36</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N23" s="1">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="O23" s="1">
+        <v>37.65</v>
+      </c>
+      <c r="P23" s="1">
+        <v>30.93</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>24.86</v>
+      </c>
+      <c r="R23" s="1">
+        <v>22.8</v>
+      </c>
+      <c r="S23" s="1">
+        <v>14.93</v>
+      </c>
+      <c r="T23" s="1">
+        <v>39.36</v>
+      </c>
+      <c r="U23" s="1">
+        <v>39.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2002</v>
       </c>
@@ -1049,10 +1986,49 @@
         <v>5946.7705999999998</v>
       </c>
       <c r="H24" s="1">
+        <v>19.72</v>
+      </c>
+      <c r="I24" s="1">
+        <v>14.19</v>
+      </c>
+      <c r="J24" s="1">
+        <v>24.02</v>
+      </c>
+      <c r="K24" s="1">
+        <v>25.68</v>
+      </c>
+      <c r="L24" s="1">
+        <v>32.44</v>
+      </c>
+      <c r="M24" s="1">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="N24" s="1">
+        <v>40.479999999999997</v>
+      </c>
+      <c r="O24" s="1">
         <v>41.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P24" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>25.55</v>
+      </c>
+      <c r="R24" s="1">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="S24" s="1">
+        <v>15.04</v>
+      </c>
+      <c r="T24" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="U24" s="1">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2003</v>
       </c>
@@ -1075,10 +2051,49 @@
         <v>6011.8374999999996</v>
       </c>
       <c r="H25" s="1">
+        <v>16.46</v>
+      </c>
+      <c r="I25" s="1">
+        <v>19.57</v>
+      </c>
+      <c r="J25" s="1">
+        <v>22.15</v>
+      </c>
+      <c r="K25" s="1">
+        <v>26.23</v>
+      </c>
+      <c r="L25" s="1">
+        <v>30.06</v>
+      </c>
+      <c r="M25" s="1">
+        <v>39.17</v>
+      </c>
+      <c r="N25" s="1">
         <v>40.01</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O25" s="1">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="P25" s="1">
+        <v>33.4</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>31.81</v>
+      </c>
+      <c r="R25" s="1">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="S25" s="1">
+        <v>15.69</v>
+      </c>
+      <c r="T25" s="1">
+        <v>40.01</v>
+      </c>
+      <c r="U25" s="1">
+        <v>40.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2004</v>
       </c>
@@ -1101,10 +2116,49 @@
         <v>6114.0069000000003</v>
       </c>
       <c r="H26" s="1">
+        <v>15.58</v>
+      </c>
+      <c r="I26" s="1">
+        <v>17.71</v>
+      </c>
+      <c r="J26" s="1">
+        <v>22.83</v>
+      </c>
+      <c r="K26" s="1">
+        <v>30.28</v>
+      </c>
+      <c r="L26" s="1">
+        <v>35.76</v>
+      </c>
+      <c r="M26" s="1">
+        <v>38.58</v>
+      </c>
+      <c r="N26" s="1">
+        <v>39.49</v>
+      </c>
+      <c r="O26" s="1">
         <v>40.18</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P26" s="1">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>30.37</v>
+      </c>
+      <c r="R26" s="1">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="S26" s="1">
+        <v>14.24</v>
+      </c>
+      <c r="T26" s="1">
+        <v>40.18</v>
+      </c>
+      <c r="U26" s="1">
+        <v>40.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2005</v>
       </c>
@@ -1127,10 +2181,49 @@
         <v>6134.5214999999998</v>
       </c>
       <c r="H27" s="1">
+        <v>14.39</v>
+      </c>
+      <c r="I27" s="1">
+        <v>16.18</v>
+      </c>
+      <c r="J27" s="1">
+        <v>24.12</v>
+      </c>
+      <c r="K27" s="1">
+        <v>26.98</v>
+      </c>
+      <c r="L27" s="1">
+        <v>35.69</v>
+      </c>
+      <c r="M27" s="1">
+        <v>38.4</v>
+      </c>
+      <c r="N27" s="1">
         <v>39.97</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O27" s="1">
+        <v>37.14</v>
+      </c>
+      <c r="P27" s="1">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>28.62</v>
+      </c>
+      <c r="R27" s="1">
+        <v>22.69</v>
+      </c>
+      <c r="S27" s="1">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="T27" s="1">
+        <v>39.97</v>
+      </c>
+      <c r="U27" s="1">
+        <v>39.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2006</v>
       </c>
@@ -1153,10 +2246,49 @@
         <v>6051.6679999999997</v>
       </c>
       <c r="H28" s="1">
+        <v>15.65</v>
+      </c>
+      <c r="I28" s="1">
+        <v>20.03</v>
+      </c>
+      <c r="J28" s="1">
+        <v>20.05</v>
+      </c>
+      <c r="K28" s="1">
+        <v>25.55</v>
+      </c>
+      <c r="L28" s="1">
+        <v>30.72</v>
+      </c>
+      <c r="M28" s="1">
+        <v>33.44</v>
+      </c>
+      <c r="N28" s="1">
+        <v>39.4</v>
+      </c>
+      <c r="O28" s="1">
         <v>40.619999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P28" s="1">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>25.34</v>
+      </c>
+      <c r="R28" s="1">
+        <v>20.94</v>
+      </c>
+      <c r="S28" s="1">
+        <v>15.49</v>
+      </c>
+      <c r="T28" s="1">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="U28" s="1">
+        <v>40.619999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2007</v>
       </c>
@@ -1179,10 +2311,49 @@
         <v>6131.0042000000003</v>
       </c>
       <c r="H29" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>19.46</v>
+      </c>
+      <c r="J29" s="1">
+        <v>23.39</v>
+      </c>
+      <c r="K29" s="1">
+        <v>28.05</v>
+      </c>
+      <c r="L29" s="1">
+        <v>27.87</v>
+      </c>
+      <c r="M29" s="1">
+        <v>35.9</v>
+      </c>
+      <c r="N29" s="1">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="O29" s="1">
         <v>39.92</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P29" s="1">
+        <v>32.21</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>25.64</v>
+      </c>
+      <c r="R29" s="1">
+        <v>16.82</v>
+      </c>
+      <c r="S29" s="1">
+        <v>15.23</v>
+      </c>
+      <c r="T29" s="1">
+        <v>39.92</v>
+      </c>
+      <c r="U29" s="1">
+        <v>39.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2008</v>
       </c>
@@ -1205,10 +2376,49 @@
         <v>5914.0778</v>
       </c>
       <c r="H30" s="1">
+        <v>15.18</v>
+      </c>
+      <c r="I30" s="1">
+        <v>17.09</v>
+      </c>
+      <c r="J30" s="1">
+        <v>23.67</v>
+      </c>
+      <c r="K30" s="1">
+        <v>25.76</v>
+      </c>
+      <c r="L30" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="M30" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="N30" s="1">
         <v>39.700000000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O30" s="1">
+        <v>38.11</v>
+      </c>
+      <c r="P30" s="1">
+        <v>33.89</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>29.51</v>
+      </c>
+      <c r="R30" s="1">
+        <v>25</v>
+      </c>
+      <c r="S30" s="1">
+        <v>16.87</v>
+      </c>
+      <c r="T30" s="1">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="U30" s="1">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2009</v>
       </c>
@@ -1231,10 +2441,49 @@
         <v>5478.2097000000003</v>
       </c>
       <c r="H31" s="1">
+        <v>14.24</v>
+      </c>
+      <c r="I31" s="1">
+        <v>18.52</v>
+      </c>
+      <c r="J31" s="1">
+        <v>19.18</v>
+      </c>
+      <c r="K31" s="1">
+        <v>27.65</v>
+      </c>
+      <c r="L31" s="1">
+        <v>31.96</v>
+      </c>
+      <c r="M31" s="1">
+        <v>34.32</v>
+      </c>
+      <c r="N31" s="1">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O31" s="1">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="P31" s="1">
+        <v>34.26</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>27.55</v>
+      </c>
+      <c r="R31" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="S31" s="1">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="T31" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="U31" s="1">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2010</v>
       </c>
@@ -1257,10 +2506,49 @@
         <v>5675.7864</v>
       </c>
       <c r="H32" s="1">
+        <v>15.09</v>
+      </c>
+      <c r="I32" s="1">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="J32" s="1">
+        <v>22.44</v>
+      </c>
+      <c r="K32" s="1">
+        <v>27.62</v>
+      </c>
+      <c r="L32" s="1">
+        <v>31.24</v>
+      </c>
+      <c r="M32" s="1">
+        <v>37.75</v>
+      </c>
+      <c r="N32" s="1">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="O32" s="1">
         <v>40.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P32" s="1">
+        <v>35.74</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>31.39</v>
+      </c>
+      <c r="R32" s="1">
+        <v>22.57</v>
+      </c>
+      <c r="S32" s="1">
+        <v>16.23</v>
+      </c>
+      <c r="T32" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="U32" s="1">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2011</v>
       </c>
@@ -1283,10 +2571,49 @@
         <v>5540.1734999999999</v>
       </c>
       <c r="H33" s="1">
+        <v>15.83</v>
+      </c>
+      <c r="I33" s="1">
+        <v>20.09</v>
+      </c>
+      <c r="J33" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="K33" s="1">
+        <v>24.01</v>
+      </c>
+      <c r="L33" s="1">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="M33" s="1">
+        <v>39.909999999999997</v>
+      </c>
+      <c r="N33" s="1">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="O33" s="1">
         <v>42.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P33" s="1">
+        <v>33.68</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>27.76</v>
+      </c>
+      <c r="R33" s="1">
+        <v>18.66</v>
+      </c>
+      <c r="S33" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="T33" s="1">
+        <v>42.1</v>
+      </c>
+      <c r="U33" s="1">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2012</v>
       </c>
@@ -1309,10 +2636,49 @@
         <v>5338.6983</v>
       </c>
       <c r="H34" s="1">
+        <v>14.76</v>
+      </c>
+      <c r="I34" s="1">
+        <v>15.53</v>
+      </c>
+      <c r="J34" s="1">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="K34" s="1">
+        <v>27.31</v>
+      </c>
+      <c r="L34" s="1">
+        <v>26.69</v>
+      </c>
+      <c r="M34" s="1">
+        <v>34.74</v>
+      </c>
+      <c r="N34" s="1">
+        <v>38.53</v>
+      </c>
+      <c r="O34" s="1">
         <v>39.76</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P34" s="1">
+        <v>33.15</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>26.71</v>
+      </c>
+      <c r="R34" s="1">
+        <v>22.44</v>
+      </c>
+      <c r="S34" s="1">
+        <v>15.01</v>
+      </c>
+      <c r="T34" s="1">
+        <v>39.76</v>
+      </c>
+      <c r="U34" s="1">
+        <v>39.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2013</v>
       </c>
@@ -1335,10 +2701,49 @@
         <v>5474.2568000000001</v>
       </c>
       <c r="H35" s="1">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="I35" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="J35" s="1">
+        <v>22.49</v>
+      </c>
+      <c r="K35" s="1">
+        <v>28.03</v>
+      </c>
+      <c r="L35" s="1">
+        <v>31.13</v>
+      </c>
+      <c r="M35" s="1">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="N35" s="1">
         <v>39.11</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O35" s="1">
+        <v>36.43</v>
+      </c>
+      <c r="P35" s="1">
+        <v>38.26</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>28.93</v>
+      </c>
+      <c r="R35" s="1">
+        <v>22.95</v>
+      </c>
+      <c r="S35" s="1">
+        <v>15.08</v>
+      </c>
+      <c r="T35" s="1">
+        <v>39.11</v>
+      </c>
+      <c r="U35" s="1">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2014</v>
       </c>
@@ -1361,10 +2766,49 @@
         <v>5522.8072000000002</v>
       </c>
       <c r="H36" s="1">
+        <v>15.27</v>
+      </c>
+      <c r="I36" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J36" s="1">
+        <v>26.18</v>
+      </c>
+      <c r="K36" s="1">
+        <v>24.31</v>
+      </c>
+      <c r="L36" s="1">
+        <v>35.26</v>
+      </c>
+      <c r="M36" s="1">
+        <v>40.81</v>
+      </c>
+      <c r="N36" s="1">
         <v>41.58</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O36" s="1">
+        <v>39.06</v>
+      </c>
+      <c r="P36" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>26.37</v>
+      </c>
+      <c r="R36" s="1">
+        <v>24.01</v>
+      </c>
+      <c r="S36" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="T36" s="1">
+        <v>41.58</v>
+      </c>
+      <c r="U36" s="1">
+        <v>41.58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2015</v>
       </c>
@@ -1387,10 +2831,49 @@
         <v>5371.7705999999998</v>
       </c>
       <c r="H37" s="1">
+        <v>20.03</v>
+      </c>
+      <c r="I37" s="1">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="J37" s="1">
+        <v>22.69</v>
+      </c>
+      <c r="K37" s="1">
+        <v>22.84</v>
+      </c>
+      <c r="L37" s="1">
+        <v>28.77</v>
+      </c>
+      <c r="M37" s="1">
+        <v>36.47</v>
+      </c>
+      <c r="N37" s="1">
+        <v>39.99</v>
+      </c>
+      <c r="O37" s="1">
+        <v>38.32</v>
+      </c>
+      <c r="P37" s="1">
         <v>40.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1">
+        <v>30.45</v>
+      </c>
+      <c r="R37" s="1">
+        <v>22.4</v>
+      </c>
+      <c r="S37" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="T37" s="1">
+        <v>40.4</v>
+      </c>
+      <c r="U37" s="1">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2016</v>
       </c>
@@ -1413,10 +2896,49 @@
         <v>5248.0239000000001</v>
       </c>
       <c r="H38" s="1">
+        <v>15.39</v>
+      </c>
+      <c r="I38" s="1">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="J38" s="1">
+        <v>25.38</v>
+      </c>
+      <c r="K38" s="1">
+        <v>27.19</v>
+      </c>
+      <c r="L38" s="1">
+        <v>33.69</v>
+      </c>
+      <c r="M38" s="1">
         <v>40.81</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N38" s="1">
+        <v>40.17</v>
+      </c>
+      <c r="O38" s="1">
+        <v>40.01</v>
+      </c>
+      <c r="P38" s="1">
+        <v>32.94</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>31.76</v>
+      </c>
+      <c r="R38" s="1">
+        <v>21.19</v>
+      </c>
+      <c r="S38" s="1">
+        <v>17</v>
+      </c>
+      <c r="T38" s="1">
+        <v>40.81</v>
+      </c>
+      <c r="U38" s="1">
+        <v>40.81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2017</v>
       </c>
@@ -1439,10 +2961,49 @@
         <v>5207.7512999999999</v>
       </c>
       <c r="H39" s="1">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="I39" s="1">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="J39" s="1">
+        <v>20.47</v>
+      </c>
+      <c r="K39" s="1">
+        <v>26.97</v>
+      </c>
+      <c r="L39" s="1">
+        <v>26.98</v>
+      </c>
+      <c r="M39" s="1">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="N39" s="1">
+        <v>36.46</v>
+      </c>
+      <c r="O39" s="1">
         <v>41.64</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P39" s="1">
+        <v>36.74</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="R39" s="1">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="S39" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="T39" s="1">
+        <v>41.64</v>
+      </c>
+      <c r="U39" s="1">
+        <v>41.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2018</v>
       </c>
@@ -1465,10 +3026,49 @@
         <v>5375.4906000000001</v>
       </c>
       <c r="H40" s="1">
+        <v>15.58</v>
+      </c>
+      <c r="I40" s="1">
+        <v>20.52</v>
+      </c>
+      <c r="J40" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="K40" s="1">
+        <v>26.83</v>
+      </c>
+      <c r="L40" s="1">
+        <v>33.130000000000003</v>
+      </c>
+      <c r="M40" s="1">
         <v>41.21</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N40" s="1">
+        <v>40.28</v>
+      </c>
+      <c r="O40" s="1">
+        <v>38.26</v>
+      </c>
+      <c r="P40" s="1">
+        <v>34.04</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>30.7</v>
+      </c>
+      <c r="R40" s="1">
+        <v>22.83</v>
+      </c>
+      <c r="S40" s="1">
+        <v>17.04</v>
+      </c>
+      <c r="T40" s="1">
+        <v>41.21</v>
+      </c>
+      <c r="U40" s="1">
+        <v>41.21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2019</v>
       </c>
@@ -1491,10 +3091,49 @@
         <v>5255.8162000000002</v>
       </c>
       <c r="H41" s="1">
+        <v>14.69</v>
+      </c>
+      <c r="I41" s="1">
+        <v>20.91</v>
+      </c>
+      <c r="J41" s="1">
+        <v>26.42</v>
+      </c>
+      <c r="K41" s="1">
+        <v>21.94</v>
+      </c>
+      <c r="L41" s="1">
+        <v>31.99</v>
+      </c>
+      <c r="M41" s="1">
+        <v>38.22</v>
+      </c>
+      <c r="N41" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O41" s="1">
+        <v>40.33</v>
+      </c>
+      <c r="P41" s="1">
+        <v>34.15</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>27.45</v>
+      </c>
+      <c r="R41" s="1">
+        <v>21.65</v>
+      </c>
+      <c r="S41" s="1">
+        <v>15.72</v>
+      </c>
+      <c r="T41" s="1">
+        <v>41</v>
+      </c>
+      <c r="U41" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2020</v>
       </c>
@@ -1517,6 +3156,45 @@
         <v>4712.7705999999998</v>
       </c>
       <c r="H42" s="1">
+        <v>17.05</v>
+      </c>
+      <c r="I42" s="1">
+        <v>18.73</v>
+      </c>
+      <c r="J42" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="K42" s="1">
+        <v>23.48</v>
+      </c>
+      <c r="L42" s="1">
+        <v>30.94</v>
+      </c>
+      <c r="M42" s="1">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="N42" s="1">
+        <v>41.23</v>
+      </c>
+      <c r="O42" s="1">
+        <v>43</v>
+      </c>
+      <c r="P42" s="1">
+        <v>33.07</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>26.32</v>
+      </c>
+      <c r="R42" s="1">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="S42" s="1">
+        <v>16.32</v>
+      </c>
+      <c r="T42" s="1">
+        <v>43</v>
+      </c>
+      <c r="U42" s="1">
         <v>43</v>
       </c>
     </row>
